--- a/short_courses.xlsx
+++ b/short_courses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>title</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Introduction to Health Economics, Francqui Chair Pr. Annemans</t>
+  </si>
+  <si>
+    <t>SAS Basics</t>
+  </si>
+  <si>
+    <t>BI Knowledge Sharing</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -132,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="location"/>
@@ -144,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +190,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,19 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,7 +468,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -475,7 +479,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -486,7 +490,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -497,7 +501,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -508,7 +512,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -519,7 +523,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -530,7 +534,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -541,7 +545,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -552,7 +556,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -563,7 +567,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -572,6 +576,17 @@
       </c>
       <c r="C12">
         <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>

--- a/short_courses.xlsx
+++ b/short_courses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>title</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>BI Knowledge Sharing</t>
+  </si>
+  <si>
+    <t>RIVM &amp; WIV-ISP, Brussels, Belgium</t>
+  </si>
+  <si>
+    <t>Introduction to the Statistical Program to Assess Dietary Exposure (SPADE)</t>
   </si>
 </sst>
 </file>
@@ -138,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14"/>
   <tableColumns count="3">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="location"/>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,6 +595,17 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/short_courses.xlsx
+++ b/short_courses.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>title</t>
   </si>
@@ -49,36 +49,12 @@
     <t>Writing for Non-Specialists and Press</t>
   </si>
   <si>
-    <t>Ghent University, Merelbeke, Belgium</t>
-  </si>
-  <si>
-    <t>Université catholique de Louvain, Louvain-la-Neuve, Belgium</t>
-  </si>
-  <si>
-    <t>Cornell University @ ISVEE congress, Ghent, Belgium</t>
-  </si>
-  <si>
-    <t>UCT (Ghent University), Ghent, Belgium</t>
-  </si>
-  <si>
-    <t>Université catholique de Louvain, Brussels, Belgium</t>
-  </si>
-  <si>
-    <t>LSHTM, London, UK</t>
-  </si>
-  <si>
-    <t>Antwerp University, Antwerp, Belgium</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
     <t>GBD Technical Training Workshop</t>
   </si>
   <si>
-    <t>IHME (University of Washington) @ Crete, Greece</t>
-  </si>
-  <si>
     <t>Introduction to Health Economics, Francqui Chair Pr. Annemans</t>
   </si>
   <si>
@@ -88,16 +64,43 @@
     <t>BI Knowledge Sharing</t>
   </si>
   <si>
-    <t>RIVM &amp; WIV-ISP, Brussels, Belgium</t>
-  </si>
-  <si>
     <t>Introduction to the Statistical Program to Assess Dietary Exposure (SPADE)</t>
+  </si>
+  <si>
+    <t>Speaking in Public - With Exercises from the Theater</t>
+  </si>
+  <si>
+    <t>Ghent University</t>
+  </si>
+  <si>
+    <t>UCT (Ghent University)</t>
+  </si>
+  <si>
+    <t>IHME (University of Washington)</t>
+  </si>
+  <si>
+    <t>RIVM</t>
+  </si>
+  <si>
+    <t>Klein Barnum</t>
+  </si>
+  <si>
+    <t>Antwerp University</t>
+  </si>
+  <si>
+    <t>LSHTM</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Université catholique de Louvain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,13 +142,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="location"/>
@@ -198,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -468,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2011</v>
@@ -479,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -490,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2012</v>
@@ -501,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2012</v>
@@ -512,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2012</v>
@@ -520,10 +526,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2013</v>
@@ -534,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2013</v>
@@ -545,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2013</v>
@@ -556,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2013</v>
@@ -567,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2013</v>
@@ -575,7 +581,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -586,10 +592,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>2016</v>
@@ -597,13 +603,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>

--- a/short_courses.xlsx
+++ b/short_courses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Université catholique de Louvain</t>
+  </si>
+  <si>
+    <t>WIV-ISP</t>
+  </si>
+  <si>
+    <t>Workshop Evaluation Interviews</t>
   </si>
 </sst>
 </file>
@@ -150,8 +156,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="location"/>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,23 +609,34 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2019</v>
       </c>
     </row>

--- a/short_courses.xlsx
+++ b/short_courses.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>title</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Workshop Evaluation Interviews</t>
+  </si>
+  <si>
+    <t>Introductory teacher training</t>
   </si>
 </sst>
 </file>
@@ -156,8 +159,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
   <tableColumns count="3">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="location"/>
@@ -454,17 +457,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +491,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -497,7 +502,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -508,7 +513,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -519,7 +524,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -530,7 +535,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -541,7 +546,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -552,7 +557,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -563,7 +568,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -574,7 +579,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -585,7 +590,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -596,7 +601,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -607,7 +612,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -618,7 +623,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -629,7 +634,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -637,6 +642,17 @@
         <v>22</v>
       </c>
       <c r="C16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
         <v>2019</v>
       </c>
     </row>
